--- a/downloaded_files/EECS101_Lecture-35274.xlsx
+++ b/downloaded_files/EECS101_Lecture-35274.xlsx
@@ -141,6 +141,15 @@
     <x:t>Abdelrhaman Mohamed gamal eldin abdelghany</x:t>
   </x:si>
   <x:si>
+    <x:t>1230066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على اشرف على حسن السنان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230069</x:t>
   </x:si>
   <x:si>
@@ -268,15 +277,6 @@
   </x:si>
   <x:si>
     <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور هانى محمد جمال محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Hany</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -1218,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45926.5688795486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1246,9 +1246,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1271,16 +1273,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1312,7 +1312,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1340,9 +1340,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1365,16 +1367,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1406,7 +1406,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.5378197917</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1438,7 +1438,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5744230324</x:v>
+        <x:v>45907.5378197917</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1470,7 +1470,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.5744230324</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1502,7 +1502,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1534,7 +1534,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1566,7 +1566,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.5090681713</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1598,7 +1598,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.5090681713</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1630,7 +1630,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1662,7 +1662,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4211157755</x:v>
+        <x:v>45909.424537037</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1694,7 +1694,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.717471875</x:v>
+        <x:v>45907.4211157755</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/EECS101_Lecture-35274.xlsx
+++ b/downloaded_files/EECS101_Lecture-35274.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>AMIRA ELSAYED ISMAIL ABDELHAMEED ELWAKEEL</x:t>
   </x:si>
   <x:si>
-    <x:t>1230149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم هشام ابراهيم عبد الدايم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230009</x:t>
   </x:si>
   <x:si>
@@ -243,6 +234,15 @@
     <x:t>Mariam Ayman Omran Abdallah</x:t>
   </x:si>
   <x:si>
+    <x:t>1230257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIM</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230325</x:t>
   </x:si>
   <x:si>
@@ -277,6 +277,15 @@
   </x:si>
   <x:si>
     <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -866,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4163689005</x:v>
+        <x:v>45907.4191304745</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -898,7 +907,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4191304745</x:v>
+        <x:v>45907.4409110301</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -930,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4409110301</x:v>
+        <x:v>45907.6648507292</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -962,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6648507292</x:v>
+        <x:v>45907.6650103357</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -994,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6650103357</x:v>
+        <x:v>45917.8701990394</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.8701990394</x:v>
+        <x:v>45913.0630672106</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.0630672106</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45909.4155809838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4155809838</x:v>
+        <x:v>45927.4329591782</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45909.4714030903</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4714030903</x:v>
+        <x:v>45926.5688795486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45926.5688795486</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1246,11 +1255,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,14 +1280,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1312,7 +1321,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1340,11 +1349,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1367,14 +1374,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.5378197917</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5378197917</x:v>
+        <x:v>45907.5744230324</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5744230324</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45927.4821141551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45927.4185873843</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1726,7 +1735,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1758,7 +1767,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1790,7 +1799,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1822,7 +1831,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1850,9 +1859,11 @@
       <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650458333</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1875,16 +1886,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45907.6650458333</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1901,6 +1910,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.420144213</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35274.xlsx
+++ b/downloaded_files/EECS101_Lecture-35274.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -259,15 +259,6 @@
   </x:si>
   <x:si>
     <x:t>Menatallah Wael Sadek El Sawy Badr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1131,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4329591782</x:v>
+        <x:v>45928.9269476852</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4185873843</x:v>
+        <x:v>45907.4211157755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4211157755</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1735,7 +1726,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1767,7 +1758,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1799,7 +1790,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1831,7 +1822,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1859,11 +1850,9 @@
       <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
+      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45928.9142168171</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1886,14 +1875,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45907.6650458333</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1910,38 +1901,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.420144213</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35274.xlsx
+++ b/downloaded_files/EECS101_Lecture-35274.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Julia Ehab thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>داني فادي فاروق سعد بشاي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dani Fadi Farouk Saad Beshay</x:t>
   </x:si>
   <x:si>
     <x:t>1230183</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1026,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.0630672106</x:v>
+        <x:v>45929.5609421296</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45913.0630672106</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4155809838</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.9269476852</x:v>
+        <x:v>45909.4155809838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4714030903</x:v>
+        <x:v>45929.4830858449</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45926.5688795486</x:v>
+        <x:v>45909.4714030903</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45926.5688795486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1246,9 +1255,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1271,16 +1282,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1312,7 +1321,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1340,9 +1349,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1365,16 +1376,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.5378197917</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5744230324</x:v>
+        <x:v>45907.5378197917</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.5744230324</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4821141551</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.5090681713</x:v>
+        <x:v>45927.4821141551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.5090681713</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4211157755</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.4211157755</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1726,7 +1735,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1758,7 +1767,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1790,7 +1799,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1822,7 +1831,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1850,9 +1859,11 @@
       <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45928.9142168171</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1875,16 +1886,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45928.9142168171</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1901,6 +1910,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.420144213</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35274.xlsx
+++ b/downloaded_files/EECS101_Lecture-35274.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -259,6 +259,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Abdelnaby Elsayed Abdelgawad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1220287</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1671,7 +1680,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45937.7816862269</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4211157755</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.4211157755</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1767,7 +1776,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1799,7 +1808,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1831,7 +1840,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6698700579</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1863,7 +1872,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6698700579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1891,9 +1900,11 @@
       <x:c r="C35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45928.9142168171</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,16 +1927,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45928.9142168171</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1942,6 +1951,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.420144213</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35274.xlsx
+++ b/downloaded_files/EECS101_Lecture-35274.xlsx
@@ -249,7 +249,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230325</x:t>
@@ -345,7 +345,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
 </x:sst>
 </file>
